--- a/va_facility_data_2025-02-20/Dallas VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Dallas%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dallas VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Dallas%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R41680321e6954774bff3d1ff245ff1fe"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc3a0f3f7814c41dcabf8bc8a1c093714"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0f211a2eb4584bf58183883ad91f3f4c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rddf87f6310744135a084d7bb04556340"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf9429e396f724e63a449da591fdfda81"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R039460453ee44518a8f7c64f10bfedbd"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rb59e920bbaf1494595f890fcba2cee43"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R0208674da4fc4c538472381e99d94013"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R937b807c9d1e4dca9d29d8ca96322526"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R86dc14c6381e4880ad0e932fa79bc5e6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R7fbbf22aa7124881af547d4398a8bc82"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd5315f22c9a04d44a9243a27095ff08b"/>
   </x:sheets>
 </x:workbook>
 </file>
